--- a/output/below_50/tRNA-iMet-CAT-1-3.xlsx
+++ b/output/below_50/tRNA-iMet-CAT-1-3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="69">
   <si>
     <t>chr6</t>
   </si>
@@ -219,183 +219,6 @@
   </si>
   <si>
     <t>57</t>
-  </si>
-  <si>
-    <t>26313405</t>
-  </si>
-  <si>
-    <t>26313428</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>26313408</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GAGACAGCAGAGTGGCGCAG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>92% (65)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 37, Doench 2016: 92%, Moreno-Mateos: 95%</t>
-  </si>
-  <si>
-    <t>2.08137E+11</t>
-  </si>
-  <si>
-    <t>26313507</t>
-  </si>
-  <si>
-    <t>26313530</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>26313510</t>
-  </si>
-  <si>
-    <t>ACAACAAATCATTTAAAATT</t>
-  </si>
-  <si>
-    <t>3% (23)</t>
-  </si>
-  <si>
-    <t>3% (13)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 20, Doench 2016: 3%, Moreno-Mateos: 3%</t>
-  </si>
-  <si>
-    <t>2.77681E+11</t>
-  </si>
-  <si>
-    <t>26313562</t>
-  </si>
-  <si>
-    <t>26313585</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>26313582</t>
-  </si>
-  <si>
-    <t>GCACACTGGCCATCCATATG</t>
-  </si>
-  <si>
-    <t>57% (48)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 34, Doench 2016: 92%, Moreno-Mateos: 57%</t>
-  </si>
-  <si>
-    <t>2320278954</t>
-  </si>
-  <si>
-    <t>26313705</t>
-  </si>
-  <si>
-    <t>26313728</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>26313725</t>
-  </si>
-  <si>
-    <t>CTAATTGGCATAATTTATAA</t>
-  </si>
-  <si>
-    <t>14% (35)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 40, Doench 2016: 14%, Moreno-Mateos: 3%</t>
-  </si>
-  <si>
-    <t>3.68723E+11</t>
-  </si>
-  <si>
-    <t>26313748</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>26313745</t>
-  </si>
-  <si>
-    <t>AGGTGAAATTATAAATGCTT</t>
-  </si>
-  <si>
-    <t>35% (45)</t>
-  </si>
-  <si>
-    <t>61% (50)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 42, Doench 2016: 35%, Moreno-Mateos: 61%</t>
-  </si>
-  <si>
-    <t>46444496116</t>
-  </si>
-  <si>
-    <t>26313793</t>
-  </si>
-  <si>
-    <t>26313816</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>26313796</t>
-  </si>
-  <si>
-    <t>AATCTCAAGTAAAAAATGTT</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>17% (28)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 33, Doench 2016: 21%, Moreno-Mateos: 17%</t>
-  </si>
-  <si>
-    <t>2.01117E+11</t>
   </si>
 </sst>
 </file>
@@ -440,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1390,360 +1213,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>78</v>
-      </c>
-      <c r="R17" t="s">
-        <v>79</v>
-      </c>
-      <c r="S17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N18" t="s">
-        <v>86</v>
-      </c>
-      <c r="O18" t="s">
-        <v>87</v>
-      </c>
-      <c r="P18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" t="s">
-        <v>89</v>
-      </c>
-      <c r="S18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" t="s">
-        <v>93</v>
-      </c>
-      <c r="N19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" t="s">
-        <v>97</v>
-      </c>
-      <c r="S19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" t="s">
-        <v>101</v>
-      </c>
-      <c r="N20" t="s">
-        <v>104</v>
-      </c>
-      <c r="O20" t="s">
-        <v>87</v>
-      </c>
-      <c r="P20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>63</v>
-      </c>
-      <c r="R20" t="s">
-        <v>105</v>
-      </c>
-      <c r="S20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" t="s">
-        <v>108</v>
-      </c>
-      <c r="N21" t="s">
-        <v>111</v>
-      </c>
-      <c r="O21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>114</v>
-      </c>
-      <c r="R21" t="s">
-        <v>115</v>
-      </c>
-      <c r="S21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" t="s">
-        <v>121</v>
-      </c>
-      <c r="L22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" t="s">
-        <v>122</v>
-      </c>
-      <c r="O22" t="s">
-        <v>123</v>
-      </c>
-      <c r="P22" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>125</v>
-      </c>
-      <c r="R22" t="s">
-        <v>126</v>
-      </c>
-      <c r="S22" t="s">
-        <v>127</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
